--- a/Movie Report.xlsx
+++ b/Movie Report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="387">
   <si>
     <t>County</t>
   </si>
@@ -40,31 +40,1141 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>Uasin Gishu</t>
-  </si>
-  <si>
-    <t>Trans Nzoia</t>
-  </si>
-  <si>
-    <t>MTRH</t>
-  </si>
-  <si>
-    <t>KTRH</t>
-  </si>
-  <si>
-    <t>Tom</t>
-  </si>
-  <si>
-    <t>Jim</t>
-  </si>
-  <si>
-    <t>1.A</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>Bad</t>
+    <t>Trans Nzoia County</t>
+  </si>
+  <si>
+    <t>AIC Biribiriet Dispensary</t>
+  </si>
+  <si>
+    <t>Uasin Gishu County</t>
+  </si>
+  <si>
+    <t>West Pokot County</t>
+  </si>
+  <si>
+    <t>Elgeyo Marakwet County</t>
+  </si>
+  <si>
+    <t>Arror Health Centre</t>
+  </si>
+  <si>
+    <t>Assumption Sisters Dispensary</t>
+  </si>
+  <si>
+    <t>Baraka Medical Clinic (Trans Nzoia East)</t>
+  </si>
+  <si>
+    <t>Barsombe Dispensary</t>
+  </si>
+  <si>
+    <t>Bidii Health Centre</t>
+  </si>
+  <si>
+    <t>Bikeke Health Centre</t>
+  </si>
+  <si>
+    <t>Biretwa health centre</t>
+  </si>
+  <si>
+    <t>Bondeni Health Centre (Trans Nzoia - Saboti)</t>
+  </si>
+  <si>
+    <t>Burnt Forest Sub County Hospital</t>
+  </si>
+  <si>
+    <t>Busieso Dispensary</t>
+  </si>
+  <si>
+    <t>Bwayi Dispensary</t>
+  </si>
+  <si>
+    <t>Bwena Dispensary</t>
+  </si>
+  <si>
+    <t>Cedar Associate Clinic</t>
+  </si>
+  <si>
+    <t>Cedar Hospital -Eldoret</t>
+  </si>
+  <si>
+    <t>Chagaiya Dispensary</t>
+  </si>
+  <si>
+    <t>Chebaiwa Dispensary</t>
+  </si>
+  <si>
+    <t>Chebiemit Sub county Hospital</t>
+  </si>
+  <si>
+    <t>Cheboin Dispensary</t>
+  </si>
+  <si>
+    <t>Chebororwa Health Centre</t>
+  </si>
+  <si>
+    <t>Chebulbai Dispensary</t>
+  </si>
+  <si>
+    <t>Chegilet Health Centre</t>
+  </si>
+  <si>
+    <t>Chembulet Health Centre</t>
+  </si>
+  <si>
+    <t>Chemworor Health Centre</t>
+  </si>
+  <si>
+    <t>Chepareria (SDA) Dispensary</t>
+  </si>
+  <si>
+    <t>Chepareria Sub District Hospital</t>
+  </si>
+  <si>
+    <t>Chepchoina Dispensary</t>
+  </si>
+  <si>
+    <t>Chepkanga Health Centre</t>
+  </si>
+  <si>
+    <t>Chepkemel Dispensary</t>
+  </si>
+  <si>
+    <t>Chepkero Dispensary</t>
+  </si>
+  <si>
+    <t>Chepkigen Dispensary</t>
+  </si>
+  <si>
+    <t>Chepkorio Health Centre</t>
+  </si>
+  <si>
+    <t>Cheplelabei Dispensary</t>
+  </si>
+  <si>
+    <t>Chepngoror Dispensary</t>
+  </si>
+  <si>
+    <t>Chepsaita Dispensary</t>
+  </si>
+  <si>
+    <t>Chepsiro Health Centre</t>
+  </si>
+  <si>
+    <t>Cheptebo Dispensary</t>
+  </si>
+  <si>
+    <t>Chepterit Dispensary</t>
+  </si>
+  <si>
+    <t>Cheptongei Health Centre</t>
+  </si>
+  <si>
+    <t>Cheramei Dispensary</t>
+  </si>
+  <si>
+    <t>Cherangany Nursing Home</t>
+  </si>
+  <si>
+    <t>Cherangany Sub County Hospital</t>
+  </si>
+  <si>
+    <t>Chesoi Health Centre</t>
+  </si>
+  <si>
+    <t>Chesongoch Health Centre</t>
+  </si>
+  <si>
+    <t>Chesta Dispensary</t>
+  </si>
+  <si>
+    <t>Chuiyat Dispensary</t>
+  </si>
+  <si>
+    <t>Chukura Dispensary</t>
+  </si>
+  <si>
+    <t>Eldoret Hospital</t>
+  </si>
+  <si>
+    <t>Elgeyo Boader Dispensary</t>
+  </si>
+  <si>
+    <t>Elgon View Hospital</t>
+  </si>
+  <si>
+    <t>Emc Kimumu Dispensary</t>
+  </si>
+  <si>
+    <t>Endebess Sub- County Hospital</t>
+  </si>
+  <si>
+    <t>Endo Health Centre</t>
+  </si>
+  <si>
+    <t>Facility_AMEP</t>
+  </si>
+  <si>
+    <t>Flax Dispensary</t>
+  </si>
+  <si>
+    <t>Fluorspar Health Centre</t>
+  </si>
+  <si>
+    <t>Fountain Healthcare</t>
+  </si>
+  <si>
+    <t>Galilee Medical Centre</t>
+  </si>
+  <si>
+    <t>Gitwamba Health Centre</t>
+  </si>
+  <si>
+    <t>GK Prisons Dispensary (Ngeria)</t>
+  </si>
+  <si>
+    <t>Goseta Dispensary</t>
+  </si>
+  <si>
+    <t>Grassland Dispensary</t>
+  </si>
+  <si>
+    <t>Gynocare womens &amp;fistula hospital</t>
+  </si>
+  <si>
+    <t>Huruma District Hospital</t>
+  </si>
+  <si>
+    <t>Iten County Referral Hospital</t>
+  </si>
+  <si>
+    <t>Jamii Bora Clinical Services</t>
+  </si>
+  <si>
+    <t>Kabetwa Health Centre</t>
+  </si>
+  <si>
+    <t>Kabichbich Health Centre</t>
+  </si>
+  <si>
+    <t>Kabiemit Dispensary (Keiyo)</t>
+  </si>
+  <si>
+    <t>Kabobo Health Centre</t>
+  </si>
+  <si>
+    <t>Kabulwo Dispensary</t>
+  </si>
+  <si>
+    <t>Kacheliba District Hospital</t>
+  </si>
+  <si>
+    <t>Kaibei Dispensary</t>
+  </si>
+  <si>
+    <t>Kaibos Dispensary</t>
+  </si>
+  <si>
+    <t>Kaisagat Health Centre</t>
+  </si>
+  <si>
+    <t>Kalwal Dispensary</t>
+  </si>
+  <si>
+    <t>Kamogo Health Centre</t>
+  </si>
+  <si>
+    <t>Kamoi Health Centre</t>
+  </si>
+  <si>
+    <t>Kamwosor Sub County hospital</t>
+  </si>
+  <si>
+    <t>Kanyarkwat Dispensary</t>
+  </si>
+  <si>
+    <t>Kaparon Health Centre</t>
+  </si>
+  <si>
+    <t>Kapchelal Health Centre</t>
+  </si>
+  <si>
+    <t>Kapcherop Health centre</t>
+  </si>
+  <si>
+    <t>Kapenguria County Referral Hospital</t>
+  </si>
+  <si>
+    <t>Kapkata Dispensary</t>
+  </si>
+  <si>
+    <t>Kapkessum Dispensary</t>
+  </si>
+  <si>
+    <t>Kapkoi Health Centre</t>
+  </si>
+  <si>
+    <t>Kapkoi Health Centre (Kwanza)</t>
+  </si>
+  <si>
+    <t>Kapkoros Dispensary</t>
+  </si>
+  <si>
+    <t>Kaplamai Health Centre</t>
+  </si>
+  <si>
+    <t>Kaplelach Chepyakwai dispensary</t>
+  </si>
+  <si>
+    <t>Kapngetuny Dispensary</t>
+  </si>
+  <si>
+    <t>Kapsara Sub County Hospital</t>
+  </si>
+  <si>
+    <t>Kapsitwet Dispensary</t>
+  </si>
+  <si>
+    <t>Kapsowar (AIC) Hospital</t>
+  </si>
+  <si>
+    <t>Kapsoya Health Centre</t>
+  </si>
+  <si>
+    <t>Kaptabuk Dispensary</t>
+  </si>
+  <si>
+    <t>Kaptalamwa Health Centre</t>
+  </si>
+  <si>
+    <t>Kaptarakwa Sub County Hospital</t>
+  </si>
+  <si>
+    <t>Kapteldet Dispensary</t>
+  </si>
+  <si>
+    <t>Kapteldon Health Centre</t>
+  </si>
+  <si>
+    <t>Kapteren Health Centre</t>
+  </si>
+  <si>
+    <t>Kaptum Keiyo Dispensary</t>
+  </si>
+  <si>
+    <t>Kaptumo Dispensary</t>
+  </si>
+  <si>
+    <t>Kapyego Health Centre</t>
+  </si>
+  <si>
+    <t>Kapyemit Dispensary</t>
+  </si>
+  <si>
+    <t>Karuna Dispensary</t>
+  </si>
+  <si>
+    <t>Katuiyo Dispensary</t>
+  </si>
+  <si>
+    <t>Keiyo Dispensary</t>
+  </si>
+  <si>
+    <t>Keringet Health Centre</t>
+  </si>
+  <si>
+    <t>Kesses Health Centre</t>
+  </si>
+  <si>
+    <t>Kibendo Health Centre</t>
+  </si>
+  <si>
+    <t>Kibigos Dispensary</t>
+  </si>
+  <si>
+    <t>Kibormos Dispensary</t>
+  </si>
+  <si>
+    <t>Kiminini Cottage Mission Hospital</t>
+  </si>
+  <si>
+    <t>Kiminini Health Centre</t>
+  </si>
+  <si>
+    <t>Kimnai Health Centre</t>
+  </si>
+  <si>
+    <t>Kimondo Dispensary</t>
+  </si>
+  <si>
+    <t>Kimoning Dispensary</t>
+  </si>
+  <si>
+    <t>Kimurgoi Dispensary</t>
+  </si>
+  <si>
+    <t>Kimuri Dispensary</t>
+  </si>
+  <si>
+    <t>Kipkabus Health Centre</t>
+  </si>
+  <si>
+    <t>Kipkeikei Dispensary</t>
+  </si>
+  <si>
+    <t>Kipkenyo Dispensary</t>
+  </si>
+  <si>
+    <t>Kiplombe AIC Dispensary</t>
+  </si>
+  <si>
+    <t>Kipsigak Health Centre</t>
+  </si>
+  <si>
+    <t>Kisor Dispensary</t>
+  </si>
+  <si>
+    <t>Kitalale Dispensary</t>
+  </si>
+  <si>
+    <t>Kitale County Referral Hospital</t>
+  </si>
+  <si>
+    <t>Kitum Dispensary</t>
+  </si>
+  <si>
+    <t>Kobos Health Centre</t>
+  </si>
+  <si>
+    <t>Kocholwo Sub County Hospital</t>
+  </si>
+  <si>
+    <t>Kolongolo Mission Dispensary</t>
+  </si>
+  <si>
+    <t>Kondabilet Dispensary</t>
+  </si>
+  <si>
+    <t>Konyao Dispensary</t>
+  </si>
+  <si>
+    <t>Kuinet Dispensary</t>
+  </si>
+  <si>
+    <t>Kwanza Sub County Hospital</t>
+  </si>
+  <si>
+    <t>Langas RCEA Health Center</t>
+  </si>
+  <si>
+    <t>Lelboinet Health Centre (Keiyo)</t>
+  </si>
+  <si>
+    <t>Lelmolok Nursing Home</t>
+  </si>
+  <si>
+    <t>Lemoru Ngeny Dispensary</t>
+  </si>
+  <si>
+    <t>LeseruTrinity Mission Hospital</t>
+  </si>
+  <si>
+    <t>Lingwai Dispensary</t>
+  </si>
+  <si>
+    <t>Lomut Dispensary</t>
+  </si>
+  <si>
+    <t>Lukhome Health Centre</t>
+  </si>
+  <si>
+    <t>Maili Saba Dispensary</t>
+  </si>
+  <si>
+    <t>Makutano (PCEA) Medical Clinic (Trans Nzoia East)</t>
+  </si>
+  <si>
+    <t>Marinda Dispensary</t>
+  </si>
+  <si>
+    <t>Mary Immaculate Dispensary (Eldoret East)</t>
+  </si>
+  <si>
+    <t>Matunda Sub County Hospital</t>
+  </si>
+  <si>
+    <t>Mediheal Hospital</t>
+  </si>
+  <si>
+    <t>Meibeki Dispensary</t>
+  </si>
+  <si>
+    <t>Merewet Dispensary</t>
+  </si>
+  <si>
+    <t>Mitume Dispensary</t>
+  </si>
+  <si>
+    <t>Mobet Dispensary</t>
+  </si>
+  <si>
+    <t>Mogoon Dispensary</t>
+  </si>
+  <si>
+    <t>Moi Teaching Refferal Hospital</t>
+  </si>
+  <si>
+    <t>Moi University Health Centre</t>
+  </si>
+  <si>
+    <t>Moiben Health Centre</t>
+  </si>
+  <si>
+    <t>Moi's Bridge Catholic</t>
+  </si>
+  <si>
+    <t>Moi's Bridge Health Centre</t>
+  </si>
+  <si>
+    <t>Nandi County</t>
+  </si>
+  <si>
+    <t>Mosoriot Rural Health Centre</t>
+  </si>
+  <si>
+    <t>Motosiet Health Centre</t>
+  </si>
+  <si>
+    <t>Msekekwa Health Centre</t>
+  </si>
+  <si>
+    <t>Mt Elgon National Park Dispensary</t>
+  </si>
+  <si>
+    <t>Murgusi Dispensary</t>
+  </si>
+  <si>
+    <t>Murkwijit Dipensary</t>
+  </si>
+  <si>
+    <t>Muskut Health Centre</t>
+  </si>
+  <si>
+    <t>Muyengwet Dispensary</t>
+  </si>
+  <si>
+    <t>Mwangaza Medical Clinic</t>
+  </si>
+  <si>
+    <t>Nabkoi Dispensary</t>
+  </si>
+  <si>
+    <t>Namanjalala Dispensary</t>
+  </si>
+  <si>
+    <t>Neema Tunza Medical Clinic</t>
+  </si>
+  <si>
+    <t>Ngelel Tarit Dispensary</t>
+  </si>
+  <si>
+    <t>Ngenyilel Dispensary</t>
+  </si>
+  <si>
+    <t>Nyaru Dispensary</t>
+  </si>
+  <si>
+    <t>Nzoia Health Centre</t>
+  </si>
+  <si>
+    <t>Ongata Dispensary</t>
+  </si>
+  <si>
+    <t>Ortum Mission Hospital</t>
+  </si>
+  <si>
+    <t>Osorongai Dispensary</t>
+  </si>
+  <si>
+    <t>P O M Dispensary</t>
+  </si>
+  <si>
+    <t>Pioneer Health Centre</t>
+  </si>
+  <si>
+    <t>Plateau Hospital</t>
+  </si>
+  <si>
+    <t>Racecourse Hospital</t>
+  </si>
+  <si>
+    <t>Rafiki Health Centre</t>
+  </si>
+  <si>
+    <t>Railways Dispensary</t>
+  </si>
+  <si>
+    <t>Reale Hospital Clinic</t>
+  </si>
+  <si>
+    <t>Saboti Sub-County Hospital</t>
+  </si>
+  <si>
+    <t>Sarmach Dispensary</t>
+  </si>
+  <si>
+    <t>Segero Dispensary (SDA)</t>
+  </si>
+  <si>
+    <t>Sego Dispensary</t>
+  </si>
+  <si>
+    <t>Sekerr Dispensary</t>
+  </si>
+  <si>
+    <t>Sergoit Health Centre (Keiyo)</t>
+  </si>
+  <si>
+    <t>Sigor Sub District Hospital</t>
+  </si>
+  <si>
+    <t>Sikhendu Dispensary</t>
+  </si>
+  <si>
+    <t>Sikhendu Medical Clinic</t>
+  </si>
+  <si>
+    <t>Simotwo Dispensary (Eldoret East)</t>
+  </si>
+  <si>
+    <t>Simotwo Dispensary (Keiyo)</t>
+  </si>
+  <si>
+    <t>Sina Dispensary</t>
+  </si>
+  <si>
+    <t>Sinonin Dispensary</t>
+  </si>
+  <si>
+    <t>Sitatunga Dispensary</t>
+  </si>
+  <si>
+    <t>Songeto Dispensary</t>
+  </si>
+  <si>
+    <t>SOS Medical Clinic (Eldoret East)</t>
+  </si>
+  <si>
+    <t>Sosiani Health Centre</t>
+  </si>
+  <si>
+    <t>Soy Health Centre</t>
+  </si>
+  <si>
+    <t>St Freda's Cottage Hospital</t>
+  </si>
+  <si>
+    <t>St Jude Catholic Dispensary</t>
+  </si>
+  <si>
+    <t>St Jude Thaddeus MC</t>
+  </si>
+  <si>
+    <t>St Lukes Orthopaedic and Trauma Hospital</t>
+  </si>
+  <si>
+    <t>St Mary's Kapsoya Dispensary</t>
+  </si>
+  <si>
+    <t>St Raphael Arch Medical</t>
+  </si>
+  <si>
+    <t>St Ursula Dispensary</t>
+  </si>
+  <si>
+    <t>St.Raphael Dispensary (Matisi)</t>
+  </si>
+  <si>
+    <t>Starlight Mti Moja</t>
+  </si>
+  <si>
+    <t>State Lodge Dispensary</t>
+  </si>
+  <si>
+    <t>Sugoi A Dispensary</t>
+  </si>
+  <si>
+    <t>Suwerwa Health Centre</t>
+  </si>
+  <si>
+    <t>Tabare Dispensary</t>
+  </si>
+  <si>
+    <t>Tambach Sub-County Hospital</t>
+  </si>
+  <si>
+    <t>Tamough Health Centre</t>
+  </si>
+  <si>
+    <t>Tangasir Dispensary</t>
+  </si>
+  <si>
+    <t>Tarakwa Dispensary (Eldoret West)</t>
+  </si>
+  <si>
+    <t>Tiinei Dispensary</t>
+  </si>
+  <si>
+    <t>Tom Mboya Health Centre</t>
+  </si>
+  <si>
+    <t>Top Station Dispensary</t>
+  </si>
+  <si>
+    <t>Torochmoi Dispensary</t>
+  </si>
+  <si>
+    <t>Tot Sub County hospital</t>
+  </si>
+  <si>
+    <t>Tulwet Health Centre</t>
+  </si>
+  <si>
+    <t>Turbo Sub County Hospital</t>
+  </si>
+  <si>
+    <t>Turkwel Health Centre</t>
+  </si>
+  <si>
+    <t>Twiga Dispensary</t>
+  </si>
+  <si>
+    <t>Uasin Gishu District Hospital</t>
+  </si>
+  <si>
+    <t>Uhuru Dispensary</t>
+  </si>
+  <si>
+    <t>Wanainchi Medical Clinic</t>
+  </si>
+  <si>
+    <t>Weonia Health Centre</t>
+  </si>
+  <si>
+    <t>West Health Centre</t>
+  </si>
+  <si>
+    <t>Wiyeta Dispensary</t>
+  </si>
+  <si>
+    <t>Ziwa Sub County Hospital</t>
+  </si>
+  <si>
+    <t>1A</t>
+  </si>
+  <si>
+    <t>1B</t>
+  </si>
+  <si>
+    <t>Stakeholder Engagement</t>
+  </si>
+  <si>
+    <t>Condom Availability</t>
+  </si>
+  <si>
+    <t>Child Safeguarding</t>
+  </si>
+  <si>
+    <t>Waste Management</t>
+  </si>
+  <si>
+    <t>Injection Safety</t>
+  </si>
+  <si>
+    <t>1C</t>
+  </si>
+  <si>
+    <t>1D</t>
+  </si>
+  <si>
+    <t>2A</t>
+  </si>
+  <si>
+    <t>2B</t>
+  </si>
+  <si>
+    <t>3A</t>
+  </si>
+  <si>
+    <t>3B</t>
+  </si>
+  <si>
+    <t>4A</t>
+  </si>
+  <si>
+    <t>4B</t>
+  </si>
+  <si>
+    <t>Client Rights, Stigma &amp; Discrimination Policies</t>
+  </si>
+  <si>
+    <t>Support &amp; Assessment of Staff Performance</t>
+  </si>
+  <si>
+    <t>TB Infection Control</t>
+  </si>
+  <si>
+    <t>Provision of PrEP Services</t>
+  </si>
+  <si>
+    <t>Elimination of User Fees</t>
+  </si>
+  <si>
+    <t>Evidence of Treatment &amp; Viral Load Literacy</t>
+  </si>
+  <si>
+    <t>Supply Chain Management</t>
+  </si>
+  <si>
+    <t>Medication Dispensing</t>
+  </si>
+  <si>
+    <t>Supply Chain Reliability-Adult ARVs</t>
+  </si>
+  <si>
+    <t>Supply Chain Reliability-Cotrimoxazole</t>
+  </si>
+  <si>
+    <t>DBS or POC HEI</t>
+  </si>
+  <si>
+    <t>VMMC</t>
+  </si>
+  <si>
+    <t>VMMC Adverse Event (AE)mRegister</t>
+  </si>
+  <si>
+    <t>Compliance with National Testing Algorithm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Routine PITC for clients Patients with TB </t>
+  </si>
+  <si>
+    <t>Provision for PLHIV with Active or Presumptive TB</t>
+  </si>
+  <si>
+    <t>Intake Treatment Plan Development</t>
+  </si>
+  <si>
+    <t>Supply Chain Reliability</t>
+  </si>
+  <si>
+    <t>Quality Management Systems (QMS) [LAB]</t>
+  </si>
+  <si>
+    <t>HIV Viral Load Specimen Referral &amp; Results Mgnt [LAB]</t>
+  </si>
+  <si>
+    <t>Laboratory Biosafety [LAB]</t>
+  </si>
+  <si>
+    <t>Test SOPS [LAB]</t>
+  </si>
+  <si>
+    <t>Quality Testing Monitoring [LAB]</t>
+  </si>
+  <si>
+    <t>Testing Interruptions [LAB]</t>
+  </si>
+  <si>
+    <t>Waste Management [LAB]</t>
+  </si>
+  <si>
+    <t>Injection Safety [LAB]</t>
+  </si>
+  <si>
+    <t>HIV Viral Load Laboratory Capacity [LAB]</t>
+  </si>
+  <si>
+    <t>TB Screeing &amp; Mgmt in MAT Facilities</t>
+  </si>
+  <si>
+    <t>Dose Reduction &amp; Termination [MAT]</t>
+  </si>
+  <si>
+    <t>HIV Testing [MAT]</t>
+  </si>
+  <si>
+    <t>Quality Assuarance of HIV</t>
+  </si>
+  <si>
+    <t>HTS Linkage</t>
+  </si>
+  <si>
+    <t>Site Level HTS</t>
+  </si>
+  <si>
+    <t>HTS Safety Measures</t>
+  </si>
+  <si>
+    <t>Confidentiality of HTS</t>
+  </si>
+  <si>
+    <t>HIV Self-Testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Index Testing </t>
+  </si>
+  <si>
+    <t>Monitoring adverse</t>
+  </si>
+  <si>
+    <t>Secure Handing</t>
+  </si>
+  <si>
+    <t>Intimate partner</t>
+  </si>
+  <si>
+    <t>Sopprting Clients</t>
+  </si>
+  <si>
+    <t>AE prevention</t>
+  </si>
+  <si>
+    <t>Capacity gto provide GBV</t>
+  </si>
+  <si>
+    <t>Availability of GBV services</t>
+  </si>
+  <si>
+    <t>Gender Norms</t>
+  </si>
+  <si>
+    <t>Case Mgmnt Services</t>
+  </si>
+  <si>
+    <t>Case Mgmnt Workforce</t>
+  </si>
+  <si>
+    <t>Services to support HIV Testing for OVC</t>
+  </si>
+  <si>
+    <t>Services to support HIV Treatment</t>
+  </si>
+  <si>
+    <t>DREAMS Mentoring</t>
+  </si>
+  <si>
+    <t>Diagnosis HEI</t>
+  </si>
+  <si>
+    <t>Tracking HEI</t>
+  </si>
+  <si>
+    <t>Colletion of Confirmatory HEI</t>
+  </si>
+  <si>
+    <t>CTX for HIV-Exposed</t>
+  </si>
+  <si>
+    <t>HEI Follow-up</t>
+  </si>
+  <si>
+    <t>Environment of HIV-HEI</t>
+  </si>
+  <si>
+    <t>Infection Prevention</t>
+  </si>
+  <si>
+    <t>Environmental Cleaning Procedures</t>
+  </si>
+  <si>
+    <t>PPE</t>
+  </si>
+  <si>
+    <t>Decontamination of Medical Devices</t>
+  </si>
+  <si>
+    <t>DQA</t>
+  </si>
+  <si>
+    <t>QI Activities</t>
+  </si>
+  <si>
+    <t>TX-NEW</t>
+  </si>
+  <si>
+    <t>HTS-TST</t>
+  </si>
+  <si>
+    <t>PMTCT_STAT</t>
+  </si>
+  <si>
+    <t>VMMC_CIRC</t>
+  </si>
+  <si>
+    <t>TX-CURR</t>
+  </si>
+  <si>
+    <t>PMTCT EID</t>
+  </si>
+  <si>
+    <t>Supply Chain Reliability - Iso</t>
+  </si>
+  <si>
+    <t>Supply Chain Reliability - Ped</t>
+  </si>
+  <si>
+    <t>Supply Chain Reliability - Ped - Cot</t>
+  </si>
+  <si>
+    <t>Supply Chain Reliability - Ped Iso</t>
+  </si>
+  <si>
+    <t>Supply Chain Reliability - RTK</t>
+  </si>
+  <si>
+    <t>Supply Chain Reliability - PPE</t>
+  </si>
+  <si>
+    <t>Caren Kiplagat</t>
+  </si>
+  <si>
+    <t>Meets Expectation</t>
+  </si>
+  <si>
+    <t>RED</t>
+  </si>
+  <si>
+    <t>GREEN</t>
+  </si>
+  <si>
+    <t>Urgent Remediation</t>
+  </si>
+  <si>
+    <t>YELLOW</t>
+  </si>
+  <si>
+    <t>Needs Improvement</t>
+  </si>
+  <si>
+    <t>Restesting for Verification</t>
+  </si>
+  <si>
+    <t>Patient Tracking-ART Patients</t>
+  </si>
+  <si>
+    <t>Rapid ART Initiation</t>
+  </si>
+  <si>
+    <t>Viral Load Access</t>
+  </si>
+  <si>
+    <t>Management of high VL</t>
+  </si>
+  <si>
+    <t>Provision of DSD Models</t>
+  </si>
+  <si>
+    <t>Partner Services</t>
+  </si>
+  <si>
+    <t>Routine Testing of children with HIV Parents</t>
+  </si>
+  <si>
+    <t>TB Screening</t>
+  </si>
+  <si>
+    <t>TB Preventive Treatment IPT</t>
+  </si>
+  <si>
+    <t>TB Preventive Treatment CTX</t>
+  </si>
+  <si>
+    <t>TB Diagnostic Evaluation Cascade</t>
+  </si>
+  <si>
+    <t>Community-Based Linkage</t>
+  </si>
+  <si>
+    <t>Service Referral</t>
+  </si>
+  <si>
+    <t>Family Planning</t>
+  </si>
+  <si>
+    <t>Community-Based Delivery</t>
+  </si>
+  <si>
+    <t>Cervical Cancer Screening</t>
+  </si>
+  <si>
+    <t>Client Tracking-ART</t>
+  </si>
+  <si>
+    <t>First-Line ART Regimen</t>
+  </si>
+  <si>
+    <t>Dosing PED</t>
+  </si>
+  <si>
+    <t>VL Access &amp; Mon</t>
+  </si>
+  <si>
+    <t>Mgmnt High VL</t>
+  </si>
+  <si>
+    <t>Support Services for HIV Adolescents</t>
+  </si>
+  <si>
+    <t>Community-Based Linkage &amp; Retention</t>
+  </si>
+  <si>
+    <t>Service Referral &amp; Linkage System</t>
+  </si>
+  <si>
+    <t>Optimized ART Regimen for PEDS</t>
+  </si>
+  <si>
+    <t>Lubricant Availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STI Screening </t>
+  </si>
+  <si>
+    <t>Peer Outreach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Family Planning / HIV Integration </t>
+  </si>
+  <si>
+    <t>KP-Specific Program Data</t>
+  </si>
+  <si>
+    <t>Human-Centered Approaches</t>
+  </si>
+  <si>
+    <t>Appointment Spacing  &amp; MMD</t>
+  </si>
+  <si>
+    <t>CTX</t>
+  </si>
+  <si>
+    <t>Communuty-Based Linkage</t>
+  </si>
+  <si>
+    <t>Service Referal &amp; Linakge System</t>
+  </si>
+  <si>
+    <t>Communty-Based Delivery</t>
+  </si>
+  <si>
+    <t>Support Services</t>
+  </si>
+  <si>
+    <t>PITC for Marternity</t>
+  </si>
+  <si>
+    <t>ARVs at L &amp;D</t>
   </si>
 </sst>
 </file>
@@ -100,8 +1210,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment readingOrder="2"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -439,21 +1556,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H552"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="A288" workbookViewId="0">
+      <selection activeCell="A307" sqref="A307:XFD307"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="18.19921875" customWidth="1"/>
-    <col min="3" max="3" width="18.8984375" customWidth="1"/>
-    <col min="4" max="4" width="16.69921875" customWidth="1"/>
+    <col min="1" max="1" width="25.19921875" customWidth="1"/>
+    <col min="2" max="2" width="36.3984375" customWidth="1"/>
+    <col min="3" max="3" width="25.796875" customWidth="1"/>
+    <col min="4" max="4" width="18.69921875" customWidth="1"/>
+    <col min="5" max="5" width="8.796875" style="1"/>
+    <col min="6" max="6" width="47.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -466,7 +1585,7 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
@@ -479,65 +1598,3849 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="1">
-        <v>40827</v>
+        <v>9</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1123</v>
       </c>
       <c r="D2" t="s">
+        <v>340</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="G2" t="s">
+        <v>343</v>
+      </c>
+      <c r="H2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F3" t="s">
+        <v>254</v>
+      </c>
+      <c r="G3" t="s">
+        <v>345</v>
+      </c>
+      <c r="H3" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F4" t="s">
+        <v>266</v>
+      </c>
+      <c r="G4" t="s">
+        <v>342</v>
+      </c>
+      <c r="H4" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F5" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F6" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F7" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F8" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F9" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F10" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F11" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F12" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E13" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F13" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F14" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F15" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F16" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="F17" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="18" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="F18" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="19" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="F19" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="20" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="F20" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="21" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="F21" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="22" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="F22" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="23" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E23" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="F23" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="24" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E24" s="3"/>
+      <c r="F24" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="25" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E25" s="3"/>
+      <c r="F25" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="26" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E26" s="3"/>
+      <c r="F26" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="27" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E27" s="3"/>
+      <c r="F27" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="28" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E28" s="3"/>
+      <c r="F28" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="29" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E29" s="3"/>
+      <c r="F29" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="30" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E30" s="3"/>
+      <c r="F30" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="31" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E31" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="32" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E32" s="3"/>
+      <c r="F32" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="33" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E33" s="3"/>
+      <c r="F33" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="34" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E34" s="3"/>
+      <c r="F34" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="35" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E35" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="36" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E36" s="3"/>
+      <c r="F36" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="37" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E37" s="3"/>
+      <c r="F37" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="38" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E38" s="3"/>
+      <c r="F38" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="39" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E39" s="3"/>
+      <c r="F39" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="40" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E40" s="3"/>
+      <c r="F40" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="41" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E41" s="3"/>
+      <c r="F41" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="42" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E42" s="3"/>
+      <c r="F42" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="43" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E43" s="3"/>
+      <c r="F43" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="44" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E44" s="3"/>
+      <c r="F44" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="45" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E45" s="3"/>
+      <c r="F45" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="46" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E46" s="3"/>
+      <c r="F46" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="47" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E47" s="3"/>
+      <c r="F47" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="48" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E48" s="3"/>
+      <c r="F48" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="49" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E49" s="3"/>
+      <c r="F49" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="50" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E50" s="3"/>
+      <c r="F50" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="51" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E51" s="3"/>
+      <c r="F51" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="52" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E52" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="53" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E53" s="3"/>
+      <c r="F53" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="54" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E54" s="3"/>
+      <c r="F54" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="55" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E55" s="3"/>
+      <c r="F55" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="56" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E56" s="3"/>
+      <c r="F56" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="57" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E57" s="3"/>
+      <c r="F57" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="58" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E58" s="3"/>
+      <c r="F58" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="59" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E59" s="3"/>
+      <c r="F59" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="60" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E60" s="3"/>
+      <c r="F60" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="61" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E61" s="3"/>
+      <c r="F61" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="62" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E62" s="3"/>
+      <c r="F62" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="63" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E63" s="3"/>
+      <c r="F63" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="64" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E64" s="3"/>
+      <c r="F64" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="65" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E65" s="3"/>
+      <c r="F65" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="66" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E66" s="3"/>
+      <c r="F66" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="67" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E67" s="3"/>
+      <c r="F67" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="68" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E68" s="3"/>
+      <c r="F68" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="69" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E69" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="70" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E70" s="3"/>
+      <c r="F70" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="71" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E71" s="3"/>
+      <c r="F71" s="2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="72" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E72" s="3"/>
+      <c r="F72" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="73" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E73" s="3"/>
+      <c r="F73" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="74" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E74" s="3"/>
+      <c r="F74" s="2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="75" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E75" s="3"/>
+      <c r="F75" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="76" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E76" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="77" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E77" s="3"/>
+      <c r="F77" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="78" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E78" s="3"/>
+      <c r="F78" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="79" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E79" s="3"/>
+      <c r="F79" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="80" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E80" s="3"/>
+      <c r="F80" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="81" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E81" s="3"/>
+      <c r="F81" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="82" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E82" s="3"/>
+      <c r="F82" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="83" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E83" s="3"/>
+      <c r="F83" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="84" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E84" s="3"/>
+      <c r="F84" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="85" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E85" s="3"/>
+      <c r="F85" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="86" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E86" s="3"/>
+      <c r="F86" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="87" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E87" s="3"/>
+      <c r="F87" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="88" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E88" s="3"/>
+      <c r="F88" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="89" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E89" s="3"/>
+      <c r="F89" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="90" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E90" s="3"/>
+      <c r="F90" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="91" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E91" s="3"/>
+      <c r="F91" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="92" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E92" s="3"/>
+      <c r="F92" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="93" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E93" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="94" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E94" s="3"/>
+      <c r="F94" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="95" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E95" s="3"/>
+      <c r="F95" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="96" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E96" s="3"/>
+      <c r="F96" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="97" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E97" s="3"/>
+      <c r="F97" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="98" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E98" s="3"/>
+      <c r="F98" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="99" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E99" s="3"/>
+      <c r="F99" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="100" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E100" s="3"/>
+      <c r="F100" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="101" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E101" s="3"/>
+      <c r="F101" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="102" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E102" s="3"/>
+      <c r="F102" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="103" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E103" s="3"/>
+      <c r="F103" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="104" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E104" s="3"/>
+      <c r="F104" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="105" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E105" s="3"/>
+      <c r="F105" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="106" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E106" s="3"/>
+      <c r="F106" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="107" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E107" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="108" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E108" s="3"/>
+      <c r="F108" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="109" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E109" s="3"/>
+      <c r="F109" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="110" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E110" s="3"/>
+      <c r="F110" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="111" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E111" s="3"/>
+      <c r="F111" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="112" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E112" s="3"/>
+      <c r="F112" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="113" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E113" s="3"/>
+      <c r="F113" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="114" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E114" s="3">
+        <v>5</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="115" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E115" s="3"/>
+      <c r="F115" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="116" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E116" s="3"/>
+      <c r="F116" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="117" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E117" s="3">
+        <v>6</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="118" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E118" s="3"/>
+      <c r="F118" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="119" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E119" s="3"/>
+      <c r="F119" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="120" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E120" s="3"/>
+      <c r="F120" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="121" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E121" s="3"/>
+      <c r="F121" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="122" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E122" s="3"/>
+      <c r="F122" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="123" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E123" s="3"/>
+      <c r="F123" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="124" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E124" s="3"/>
+      <c r="F124" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="125" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E125" s="3">
+        <v>7</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="126" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E126" s="3"/>
+      <c r="F126" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="127" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E127" s="3"/>
+      <c r="F127" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="128" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E128" s="3"/>
+      <c r="F128" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="129" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E129" s="3"/>
+      <c r="F129" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="130" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E130" s="3"/>
+      <c r="F130" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="131" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E131" s="3"/>
+      <c r="F131" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="132" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E132" s="3"/>
+      <c r="F132" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="133" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E133" s="3"/>
+      <c r="F133" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="134" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E134" s="3"/>
+      <c r="F134" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="135" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E135" s="3"/>
+      <c r="F135" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="136" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E136" s="3"/>
+      <c r="F136" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="137" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E137" s="3"/>
+      <c r="F137" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="138" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E138" s="3">
+        <v>8</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="139" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E139" s="3"/>
+      <c r="F139" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="140" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E140" s="3">
+        <v>9</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="141" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E141" s="3"/>
+      <c r="F141" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="142" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E142" s="3"/>
+      <c r="F142" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="143" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E143" s="3"/>
+      <c r="F143" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="144" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E144" s="3"/>
+      <c r="F144" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E145" s="3">
+        <v>10</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E146" s="3"/>
+      <c r="F146" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E147" s="3"/>
+      <c r="F147" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E148" s="3"/>
+      <c r="F148" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E149" s="3"/>
+      <c r="F149" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E150" s="3"/>
+      <c r="F150" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E151" s="3"/>
+      <c r="F151" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E152" s="3"/>
+      <c r="F152" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E153" s="3"/>
+      <c r="F153" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A154" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="B154" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C154" s="2"/>
+      <c r="D154" s="2"/>
+      <c r="E154" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E155" s="3"/>
+      <c r="F155" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="H155" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E156" s="3"/>
+      <c r="F156" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="H156" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E157" s="3"/>
+      <c r="F157" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E158" s="3"/>
+      <c r="F158" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E159" s="3"/>
+      <c r="F159" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E160" s="3"/>
+      <c r="F160" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="161" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E161" s="3"/>
+      <c r="F161" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="162" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E162" s="3"/>
+      <c r="F162" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="163" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E163" s="3"/>
+      <c r="F163" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="164" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E164" s="3"/>
+      <c r="F164" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="165" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E165" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="166" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E166" s="3"/>
+      <c r="F166" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="167" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E167" s="3"/>
+      <c r="F167" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="168" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E168" s="3"/>
+      <c r="F168" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="169" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E169" s="3"/>
+      <c r="F169" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="170" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E170" s="3"/>
+      <c r="F170" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="171" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E171" s="3"/>
+      <c r="F171" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="172" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E172" s="3"/>
+      <c r="F172" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="173" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E173" s="3"/>
+      <c r="F173" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="174" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E174" s="3"/>
+      <c r="F174" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="175" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E175" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="176" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E176" s="3"/>
+      <c r="F176" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="177" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E177" s="3"/>
+      <c r="F177" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="178" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E178" s="3"/>
+      <c r="F178" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="179" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E179" s="3"/>
+      <c r="F179" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="180" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E180" s="3"/>
+      <c r="F180" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="181" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E181" s="3"/>
+      <c r="F181" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="182" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E182" s="3"/>
+      <c r="F182" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="183" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E183" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="184" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E184" s="3"/>
+      <c r="F184" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="185" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E185" s="3"/>
+      <c r="F185" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="186" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E186" s="3"/>
+      <c r="F186" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="187" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E187" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="188" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E188" s="3"/>
+      <c r="F188" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="189" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E189" s="3"/>
+      <c r="F189" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="190" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E190" s="3"/>
+      <c r="F190" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="191" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E191" s="3"/>
+      <c r="F191" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="192" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E192" s="3"/>
+      <c r="F192" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="193" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E193" s="3"/>
+      <c r="F193" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="194" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E194" s="3"/>
+      <c r="F194" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="195" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E195" s="3"/>
+      <c r="F195" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="196" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E196" s="3"/>
+      <c r="F196" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="197" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E197" s="3"/>
+      <c r="F197" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="198" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E198" s="3"/>
+      <c r="F198" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="199" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E199" s="3"/>
+      <c r="F199" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="200" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E200" s="3"/>
+      <c r="F200" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="201" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E201" s="3"/>
+      <c r="F201" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="202" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E202" s="3"/>
+      <c r="F202" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="203" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E203" s="3"/>
+      <c r="F203" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="204" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E204" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="205" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E205" s="3"/>
+      <c r="F205" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="206" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E206" s="3"/>
+      <c r="F206" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="207" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E207" s="3"/>
+      <c r="F207" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="208" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E208" s="3"/>
+      <c r="F208" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="209" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E209" s="3"/>
+      <c r="F209" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="210" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E210" s="3"/>
+      <c r="F210" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="211" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E211" s="3"/>
+      <c r="F211" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="212" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E212" s="3"/>
+      <c r="F212" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="213" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E213" s="3"/>
+      <c r="F213" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="214" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E214" s="3"/>
+      <c r="F214" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="215" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E215" s="3"/>
+      <c r="F215" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="216" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E216" s="3"/>
+      <c r="F216" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="217" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E217" s="3"/>
+      <c r="F217" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="218" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E218" s="3"/>
+      <c r="F218" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="219" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E219" s="3"/>
+      <c r="F219" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="220" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E220" s="3"/>
+      <c r="F220" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="221" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E221" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="F221" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="222" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E222" s="3"/>
+      <c r="F222" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="223" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E223" s="3"/>
+      <c r="F223" s="2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="224" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E224" s="3"/>
+      <c r="F224" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="225" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E225" s="3"/>
+      <c r="F225" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="226" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E226" s="3"/>
+      <c r="F226" s="2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="227" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E227" s="3"/>
+      <c r="F227" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="228" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E228" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F228" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="229" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E229" s="3"/>
+      <c r="F229" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="230" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E230" s="3"/>
+      <c r="F230" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="231" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E231" s="3"/>
+      <c r="F231" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="232" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E232" s="3"/>
+      <c r="F232" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="233" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E233" s="3"/>
+      <c r="F233" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="234" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E234" s="3"/>
+      <c r="F234" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="235" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E235" s="3"/>
+      <c r="F235" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="236" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E236" s="3"/>
+      <c r="F236" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="237" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E237" s="3"/>
+      <c r="F237" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="238" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E238" s="3"/>
+      <c r="F238" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="239" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E239" s="3"/>
+      <c r="F239" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="240" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E240" s="3"/>
+      <c r="F240" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="241" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E241" s="3"/>
+      <c r="F241" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="242" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E242" s="3"/>
+      <c r="F242" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="243" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E243" s="3"/>
+      <c r="F243" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="244" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E244" s="3"/>
+      <c r="F244" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="245" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E245" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="F245" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="246" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E246" s="3"/>
+      <c r="F246" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="247" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E247" s="3"/>
+      <c r="F247" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="248" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E248" s="3"/>
+      <c r="F248" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="249" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E249" s="3"/>
+      <c r="F249" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="250" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E250" s="3"/>
+      <c r="F250" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="251" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E251" s="3"/>
+      <c r="F251" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="252" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E252" s="3"/>
+      <c r="F252" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="253" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E253" s="3"/>
+      <c r="F253" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="254" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E254" s="3"/>
+      <c r="F254" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="255" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E255" s="3"/>
+      <c r="F255" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="256" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E256" s="3"/>
+      <c r="F256" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="257" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E257" s="3"/>
+      <c r="F257" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="258" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E258" s="3"/>
+      <c r="F258" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="259" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E259" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="F259" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="260" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E260" s="3"/>
+      <c r="F260" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="261" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E261" s="3"/>
+      <c r="F261" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="262" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E262" s="3"/>
+      <c r="F262" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="263" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E263" s="3"/>
+      <c r="F263" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="264" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E264" s="3"/>
+      <c r="F264" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="265" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E265" s="3"/>
+      <c r="F265" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="266" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E266" s="3">
+        <v>5</v>
+      </c>
+      <c r="F266" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="267" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E267" s="3"/>
+      <c r="F267" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="268" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E268" s="3"/>
+      <c r="F268" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="269" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E269" s="3">
+        <v>6</v>
+      </c>
+      <c r="F269" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="270" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E270" s="3"/>
+      <c r="F270" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="271" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E271" s="3"/>
+      <c r="F271" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="272" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E272" s="3"/>
+      <c r="F272" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="273" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E273" s="3"/>
+      <c r="F273" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="274" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E274" s="3"/>
+      <c r="F274" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="275" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E275" s="3"/>
+      <c r="F275" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="276" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E276" s="3"/>
+      <c r="F276" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="277" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E277" s="3">
+        <v>7</v>
+      </c>
+      <c r="F277" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="278" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E278" s="3"/>
+      <c r="F278" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="279" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E279" s="3"/>
+      <c r="F279" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="280" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E280" s="3"/>
+      <c r="F280" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="281" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E281" s="3"/>
+      <c r="F281" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="282" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E282" s="3"/>
+      <c r="F282" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="283" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E283" s="3"/>
+      <c r="F283" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="284" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E284" s="3"/>
+      <c r="F284" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="285" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E285" s="3"/>
+      <c r="F285" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="286" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E286" s="3"/>
+      <c r="F286" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="287" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E287" s="3"/>
+      <c r="F287" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="288" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E288" s="3"/>
+      <c r="F288" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="289" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E289" s="3"/>
+      <c r="F289" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="290" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E290" s="3">
+        <v>8</v>
+      </c>
+      <c r="F290" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="291" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E291" s="3"/>
+      <c r="F291" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="292" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E292" s="3">
+        <v>9</v>
+      </c>
+      <c r="F292" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="293" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E293" s="3"/>
+      <c r="F293" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="294" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E294" s="3"/>
+      <c r="F294" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="295" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E295" s="3"/>
+      <c r="F295" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="296" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E296" s="3"/>
+      <c r="F296" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="297" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E297" s="3">
+        <v>10</v>
+      </c>
+      <c r="F297" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="298" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E298" s="3"/>
+      <c r="F298" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="299" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E299" s="3"/>
+      <c r="F299" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="300" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E300" s="3"/>
+      <c r="F300" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="301" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E301" s="3"/>
+      <c r="F301" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="302" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E302" s="3"/>
+      <c r="F302" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="303" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E303" s="3"/>
+      <c r="F303" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="304" spans="5:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E304" s="3"/>
+      <c r="F304" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E305" s="3"/>
+      <c r="F305" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A306" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B306" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="C306" s="2"/>
+      <c r="D306" s="2"/>
+      <c r="E306" s="2"/>
+    </row>
+    <row r="307" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A308" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B308" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C308" s="2"/>
+      <c r="D308" s="2"/>
+      <c r="E308" s="2"/>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A309" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B309" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C309" s="2"/>
+      <c r="D309" s="2"/>
+      <c r="E309" s="2"/>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A310" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B310" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C310" s="2"/>
+      <c r="D310" s="2"/>
+      <c r="E310" s="2"/>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A311" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B311" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C311" s="2"/>
+      <c r="D311" s="2"/>
+      <c r="E311" s="2"/>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A312" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B312" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C312" s="2"/>
+      <c r="D312" s="2"/>
+      <c r="E312" s="2"/>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A313" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B313" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C313" s="2"/>
+      <c r="D313" s="2"/>
+      <c r="E313" s="2"/>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A314" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B314" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C314" s="2"/>
+      <c r="D314" s="2"/>
+      <c r="E314" s="2"/>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A315" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B315" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C315" s="2"/>
+      <c r="D315" s="2"/>
+      <c r="E315" s="2"/>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A316" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B316" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C316" s="2"/>
+      <c r="D316" s="2"/>
+      <c r="E316" s="2"/>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A317" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1">
-        <v>45017</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3">
-        <v>4</v>
-      </c>
-      <c r="F3">
-        <v>4.2</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.3"/>
+      <c r="B317" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A318" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B318" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A319" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B319" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A320" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B320" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A321" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B321" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A322" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B322" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
+        <v>10</v>
+      </c>
+      <c r="B333" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
+        <v>12</v>
+      </c>
+      <c r="B334" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
+        <v>12</v>
+      </c>
+      <c r="B335" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
+        <v>12</v>
+      </c>
+      <c r="B336" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
+        <v>10</v>
+      </c>
+      <c r="B337" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
+        <v>12</v>
+      </c>
+      <c r="B338" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
+        <v>11</v>
+      </c>
+      <c r="B339" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
+        <v>11</v>
+      </c>
+      <c r="B340" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
+        <v>8</v>
+      </c>
+      <c r="B341" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
+        <v>10</v>
+      </c>
+      <c r="B342" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
+        <v>10</v>
+      </c>
+      <c r="B343" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
+        <v>10</v>
+      </c>
+      <c r="B344" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
+        <v>10</v>
+      </c>
+      <c r="B345" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
+        <v>12</v>
+      </c>
+      <c r="B346" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
+        <v>10</v>
+      </c>
+      <c r="B347" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
+        <v>10</v>
+      </c>
+      <c r="B348" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
+        <v>10</v>
+      </c>
+      <c r="B349" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
+        <v>8</v>
+      </c>
+      <c r="B350" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
+        <v>12</v>
+      </c>
+      <c r="B351" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
+        <v>10</v>
+      </c>
+      <c r="B352" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
+        <v>12</v>
+      </c>
+      <c r="B353" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
+        <v>10</v>
+      </c>
+      <c r="B354" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
+        <v>8</v>
+      </c>
+      <c r="B355" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
+        <v>8</v>
+      </c>
+      <c r="B356" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
+        <v>12</v>
+      </c>
+      <c r="B357" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
+        <v>12</v>
+      </c>
+      <c r="B358" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
+        <v>11</v>
+      </c>
+      <c r="B359" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
+        <v>10</v>
+      </c>
+      <c r="B360" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A361" t="s">
+        <v>10</v>
+      </c>
+      <c r="B361" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
+        <v>10</v>
+      </c>
+      <c r="B362" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
+        <v>10</v>
+      </c>
+      <c r="B363" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A364" t="s">
+        <v>10</v>
+      </c>
+      <c r="B364" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A365" t="s">
+        <v>10</v>
+      </c>
+      <c r="B365" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A366" t="s">
+        <v>8</v>
+      </c>
+      <c r="B366" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A367" t="s">
+        <v>12</v>
+      </c>
+      <c r="B367" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A368" t="s">
+        <v>0</v>
+      </c>
+      <c r="B368" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A369" t="s">
+        <v>12</v>
+      </c>
+      <c r="B369" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A370" t="s">
+        <v>12</v>
+      </c>
+      <c r="B370" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A371" t="s">
+        <v>10</v>
+      </c>
+      <c r="B371" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A372" t="s">
+        <v>8</v>
+      </c>
+      <c r="B372" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A373" t="s">
+        <v>8</v>
+      </c>
+      <c r="B373" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A374" t="s">
+        <v>10</v>
+      </c>
+      <c r="B374" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A375" t="s">
+        <v>8</v>
+      </c>
+      <c r="B375" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A376" t="s">
+        <v>8</v>
+      </c>
+      <c r="B376" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A377" t="s">
+        <v>10</v>
+      </c>
+      <c r="B377" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A378" t="s">
+        <v>10</v>
+      </c>
+      <c r="B378" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A379" t="s">
+        <v>12</v>
+      </c>
+      <c r="B379" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A380" t="s">
+        <v>11</v>
+      </c>
+      <c r="B380" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A381" t="s">
+        <v>12</v>
+      </c>
+      <c r="B381" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A382" t="s">
+        <v>11</v>
+      </c>
+      <c r="B382" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A383" t="s">
+        <v>12</v>
+      </c>
+      <c r="B383" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A384" t="s">
+        <v>10</v>
+      </c>
+      <c r="B384" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A385" t="s">
+        <v>12</v>
+      </c>
+      <c r="B385" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A386" t="s">
+        <v>11</v>
+      </c>
+      <c r="B386" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A387" t="s">
+        <v>8</v>
+      </c>
+      <c r="B387" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A388" t="s">
+        <v>11</v>
+      </c>
+      <c r="B388" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A389" t="s">
+        <v>8</v>
+      </c>
+      <c r="B389" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A390" t="s">
+        <v>12</v>
+      </c>
+      <c r="B390" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A391" t="s">
+        <v>12</v>
+      </c>
+      <c r="B391" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A392" t="s">
+        <v>12</v>
+      </c>
+      <c r="B392" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A393" t="s">
+        <v>12</v>
+      </c>
+      <c r="B393" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A394" t="s">
+        <v>11</v>
+      </c>
+      <c r="B394" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A395" t="s">
+        <v>12</v>
+      </c>
+      <c r="B395" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A396" t="s">
+        <v>12</v>
+      </c>
+      <c r="B396" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A397" t="s">
+        <v>12</v>
+      </c>
+      <c r="B397" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A398" t="s">
+        <v>11</v>
+      </c>
+      <c r="B398" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A399" t="s">
+        <v>12</v>
+      </c>
+      <c r="B399" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A400" t="s">
+        <v>12</v>
+      </c>
+      <c r="B400" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A401" t="s">
+        <v>12</v>
+      </c>
+      <c r="B401" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A402" t="s">
+        <v>8</v>
+      </c>
+      <c r="B402" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A403" t="s">
+        <v>10</v>
+      </c>
+      <c r="B403" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A404" t="s">
+        <v>8</v>
+      </c>
+      <c r="B404" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A405" t="s">
+        <v>10</v>
+      </c>
+      <c r="B405" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A406" t="s">
+        <v>10</v>
+      </c>
+      <c r="B406" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A407" t="s">
+        <v>8</v>
+      </c>
+      <c r="B407" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A408" t="s">
+        <v>8</v>
+      </c>
+      <c r="B408" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A409" t="s">
+        <v>12</v>
+      </c>
+      <c r="B409" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A410" t="s">
+        <v>10</v>
+      </c>
+      <c r="B410" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A411" t="s">
+        <v>11</v>
+      </c>
+      <c r="B411" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A412" t="s">
+        <v>12</v>
+      </c>
+      <c r="B412" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A413" t="s">
+        <v>12</v>
+      </c>
+      <c r="B413" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A414" t="s">
+        <v>10</v>
+      </c>
+      <c r="B414" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A415" t="s">
+        <v>10</v>
+      </c>
+      <c r="B415" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A416" t="s">
+        <v>12</v>
+      </c>
+      <c r="B416" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A417" t="s">
+        <v>12</v>
+      </c>
+      <c r="B417" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A418" t="s">
+        <v>10</v>
+      </c>
+      <c r="B418" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A419" t="s">
+        <v>12</v>
+      </c>
+      <c r="B419" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A420" t="s">
+        <v>10</v>
+      </c>
+      <c r="B420" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A421" t="s">
+        <v>10</v>
+      </c>
+      <c r="B421" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A422" t="s">
+        <v>10</v>
+      </c>
+      <c r="B422" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A423" t="s">
+        <v>8</v>
+      </c>
+      <c r="B423" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A424" t="s">
+        <v>11</v>
+      </c>
+      <c r="B424" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A425" t="s">
+        <v>10</v>
+      </c>
+      <c r="B425" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A426" t="s">
+        <v>12</v>
+      </c>
+      <c r="B426" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A427" t="s">
+        <v>12</v>
+      </c>
+      <c r="B427" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A428" t="s">
+        <v>8</v>
+      </c>
+      <c r="B428" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A429" t="s">
+        <v>8</v>
+      </c>
+      <c r="B429" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A430" t="s">
+        <v>8</v>
+      </c>
+      <c r="B430" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A431" t="s">
+        <v>12</v>
+      </c>
+      <c r="B431" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A432" t="s">
+        <v>8</v>
+      </c>
+      <c r="B432" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A433" t="s">
+        <v>10</v>
+      </c>
+      <c r="B433" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A434" t="s">
+        <v>10</v>
+      </c>
+      <c r="B434" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A435" t="s">
+        <v>10</v>
+      </c>
+      <c r="B435" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A436" t="s">
+        <v>10</v>
+      </c>
+      <c r="B436" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A437" t="s">
+        <v>8</v>
+      </c>
+      <c r="B437" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A438" t="s">
+        <v>10</v>
+      </c>
+      <c r="B438" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A439" t="s">
+        <v>10</v>
+      </c>
+      <c r="B439" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A440" t="s">
+        <v>10</v>
+      </c>
+      <c r="B440" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A441" t="s">
+        <v>10</v>
+      </c>
+      <c r="B441" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A442" t="s">
+        <v>8</v>
+      </c>
+      <c r="B442" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A443" t="s">
+        <v>8</v>
+      </c>
+      <c r="B443" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A444" t="s">
+        <v>8</v>
+      </c>
+      <c r="B444" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A445" t="s">
+        <v>8</v>
+      </c>
+      <c r="B445" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A446" t="s">
+        <v>12</v>
+      </c>
+      <c r="B446" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A447" t="s">
+        <v>8</v>
+      </c>
+      <c r="B447" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A448" t="s">
+        <v>12</v>
+      </c>
+      <c r="B448" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A449" t="s">
+        <v>11</v>
+      </c>
+      <c r="B449" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A450" t="s">
+        <v>10</v>
+      </c>
+      <c r="B450" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A451" t="s">
+        <v>8</v>
+      </c>
+      <c r="B451" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A452" t="s">
+        <v>10</v>
+      </c>
+      <c r="B452" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A453" t="s">
+        <v>12</v>
+      </c>
+      <c r="B453" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A454" t="s">
+        <v>10</v>
+      </c>
+      <c r="B454" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A455" t="s">
+        <v>10</v>
+      </c>
+      <c r="B455" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A456" t="s">
+        <v>10</v>
+      </c>
+      <c r="B456" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A457" t="s">
+        <v>10</v>
+      </c>
+      <c r="B457" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A458" t="s">
+        <v>11</v>
+      </c>
+      <c r="B458" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A459" t="s">
+        <v>8</v>
+      </c>
+      <c r="B459" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A460" t="s">
+        <v>8</v>
+      </c>
+      <c r="B460" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A461" t="s">
+        <v>8</v>
+      </c>
+      <c r="B461" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A462" t="s">
+        <v>8</v>
+      </c>
+      <c r="B462" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A463" t="s">
+        <v>10</v>
+      </c>
+      <c r="B463" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A464" t="s">
+        <v>8</v>
+      </c>
+      <c r="B464" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A465" t="s">
+        <v>10</v>
+      </c>
+      <c r="B465" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A466" t="s">
+        <v>10</v>
+      </c>
+      <c r="B466" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A467" t="s">
+        <v>10</v>
+      </c>
+      <c r="B467" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A468" t="s">
+        <v>8</v>
+      </c>
+      <c r="B468" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A469" t="s">
+        <v>10</v>
+      </c>
+      <c r="B469" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A470" t="s">
+        <v>10</v>
+      </c>
+      <c r="B470" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A471" t="s">
+        <v>10</v>
+      </c>
+      <c r="B471" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A472" t="s">
+        <v>10</v>
+      </c>
+      <c r="B472" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A473" t="s">
+        <v>10</v>
+      </c>
+      <c r="B473" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A474" t="s">
+        <v>10</v>
+      </c>
+      <c r="B474" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A475" t="s">
+        <v>10</v>
+      </c>
+      <c r="B475" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A476" t="s">
+        <v>173</v>
+      </c>
+      <c r="B476" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A477" t="s">
+        <v>8</v>
+      </c>
+      <c r="B477" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A478" t="s">
+        <v>12</v>
+      </c>
+      <c r="B478" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A479" t="s">
+        <v>8</v>
+      </c>
+      <c r="B479" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A480" t="s">
+        <v>10</v>
+      </c>
+      <c r="B480" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A481" t="s">
+        <v>11</v>
+      </c>
+      <c r="B481" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A482" t="s">
+        <v>12</v>
+      </c>
+      <c r="B482" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A483" t="s">
+        <v>10</v>
+      </c>
+      <c r="B483" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A484" t="s">
+        <v>10</v>
+      </c>
+      <c r="B484" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A485" t="s">
+        <v>10</v>
+      </c>
+      <c r="B485" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A486" t="s">
+        <v>8</v>
+      </c>
+      <c r="B486" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A487" t="s">
+        <v>8</v>
+      </c>
+      <c r="B487" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A488" t="s">
+        <v>10</v>
+      </c>
+      <c r="B488" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A489" t="s">
+        <v>10</v>
+      </c>
+      <c r="B489" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A490" t="s">
+        <v>12</v>
+      </c>
+      <c r="B490" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A491" t="s">
+        <v>8</v>
+      </c>
+      <c r="B491" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A492" t="s">
+        <v>10</v>
+      </c>
+      <c r="B492" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A493" t="s">
+        <v>11</v>
+      </c>
+      <c r="B493" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A494" t="s">
+        <v>10</v>
+      </c>
+      <c r="B494" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A495" t="s">
+        <v>11</v>
+      </c>
+      <c r="B495" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A496" t="s">
+        <v>10</v>
+      </c>
+      <c r="B496" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A497" t="s">
+        <v>10</v>
+      </c>
+      <c r="B497" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A498" t="s">
+        <v>10</v>
+      </c>
+      <c r="B498" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A499" t="s">
+        <v>8</v>
+      </c>
+      <c r="B499" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A500" t="s">
+        <v>10</v>
+      </c>
+      <c r="B500" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A501" t="s">
+        <v>10</v>
+      </c>
+      <c r="B501" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A502" t="s">
+        <v>8</v>
+      </c>
+      <c r="B502" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A503" t="s">
+        <v>11</v>
+      </c>
+      <c r="B503" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A504" t="s">
+        <v>10</v>
+      </c>
+      <c r="B504" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A505" t="s">
+        <v>12</v>
+      </c>
+      <c r="B505" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A506" t="s">
+        <v>11</v>
+      </c>
+      <c r="B506" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A507" t="s">
+        <v>12</v>
+      </c>
+      <c r="B507" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A508" t="s">
+        <v>11</v>
+      </c>
+      <c r="B508" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A509" t="s">
+        <v>8</v>
+      </c>
+      <c r="B509" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A510" t="s">
+        <v>8</v>
+      </c>
+      <c r="B510" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A511" t="s">
+        <v>10</v>
+      </c>
+      <c r="B511" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A512" t="s">
+        <v>12</v>
+      </c>
+      <c r="B512" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A513" t="s">
+        <v>11</v>
+      </c>
+      <c r="B513" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A514" t="s">
+        <v>10</v>
+      </c>
+      <c r="B514" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A515" t="s">
+        <v>8</v>
+      </c>
+      <c r="B515" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A516" t="s">
+        <v>12</v>
+      </c>
+      <c r="B516" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A517" t="s">
+        <v>10</v>
+      </c>
+      <c r="B517" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A518" t="s">
+        <v>10</v>
+      </c>
+      <c r="B518" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A519" t="s">
+        <v>10</v>
+      </c>
+      <c r="B519" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A520" t="s">
+        <v>8</v>
+      </c>
+      <c r="B520" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A521" t="s">
+        <v>10</v>
+      </c>
+      <c r="B521" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A522" t="s">
+        <v>8</v>
+      </c>
+      <c r="B522" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A523" t="s">
+        <v>10</v>
+      </c>
+      <c r="B523" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A524" t="s">
+        <v>10</v>
+      </c>
+      <c r="B524" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A525" t="s">
+        <v>10</v>
+      </c>
+      <c r="B525" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A526" t="s">
+        <v>8</v>
+      </c>
+      <c r="B526" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A527" t="s">
+        <v>8</v>
+      </c>
+      <c r="B527" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A528" t="s">
+        <v>10</v>
+      </c>
+      <c r="B528" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A529" t="s">
+        <v>10</v>
+      </c>
+      <c r="B529" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A530" t="s">
+        <v>10</v>
+      </c>
+      <c r="B530" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A531" t="s">
+        <v>8</v>
+      </c>
+      <c r="B531" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A532" t="s">
+        <v>12</v>
+      </c>
+      <c r="B532" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A533" t="s">
+        <v>12</v>
+      </c>
+      <c r="B533" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A534" t="s">
+        <v>11</v>
+      </c>
+      <c r="B534" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A535" t="s">
+        <v>10</v>
+      </c>
+      <c r="B535" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A536" t="s">
+        <v>10</v>
+      </c>
+      <c r="B536" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A537" t="s">
+        <v>11</v>
+      </c>
+      <c r="B537" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A538" t="s">
+        <v>8</v>
+      </c>
+      <c r="B538" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A539" t="s">
+        <v>8</v>
+      </c>
+      <c r="B539" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A540" t="s">
+        <v>10</v>
+      </c>
+      <c r="B540" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A541" t="s">
+        <v>12</v>
+      </c>
+      <c r="B541" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A542" t="s">
+        <v>8</v>
+      </c>
+      <c r="B542" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A543" t="s">
+        <v>10</v>
+      </c>
+      <c r="B543" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A544" t="s">
+        <v>11</v>
+      </c>
+      <c r="B544" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A545" t="s">
+        <v>10</v>
+      </c>
+      <c r="B545" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A546" t="s">
+        <v>10</v>
+      </c>
+      <c r="B546" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A547" t="s">
+        <v>10</v>
+      </c>
+      <c r="B547" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A548" t="s">
+        <v>10</v>
+      </c>
+      <c r="B548" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A549" t="s">
+        <v>8</v>
+      </c>
+      <c r="B549" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A550" t="s">
+        <v>10</v>
+      </c>
+      <c r="B550" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A551" t="s">
+        <v>8</v>
+      </c>
+      <c r="B551" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A552" t="s">
+        <v>10</v>
+      </c>
+      <c r="B552" t="s">
+        <v>250</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="A333:H552 A1:H1 A2:B2" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>